--- a/data/trans_orig/IP2005-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E81269C-CB28-4C0C-9D2F-FB550261D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D115FE20-1FC0-4F59-A389-28016F231E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C407D81C-604E-492C-A5FB-4D07B4197B00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4C5CB7-A24B-4B32-96C5-C3D523E2F653}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -107,31 +107,31 @@
     <t>74,07%</t>
   </si>
   <si>
-    <t>87,95%</t>
+    <t>87,63%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>12,05%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>25,93%</t>
@@ -140,19 +140,19 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,772 +161,775 @@
     <t>89,49%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>13,39%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>14,04%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>85,72%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
     <t>89,54%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>14,28%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>12,62%</t>
@@ -935,16 +938,13 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75614435-5D07-4710-85C4-D4CE105DBEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2540A2B-629B-48BB-9547-9CA045616B9B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2257,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAC4778-268E-4EB6-8882-07A79A81D1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2641102E-CBB9-4C3F-AE1B-334283A964B2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834502D4-EC40-4071-A88C-979DC5297033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070A4598-1353-4BA0-98A7-86E5C71F50E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3425,7 @@
         <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -3434,13 +3434,13 @@
         <v>51267</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -3449,13 +3449,13 @@
         <v>107120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3470,13 @@
         <v>10821</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3485,13 +3485,13 @@
         <v>3959</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3500,13 +3500,13 @@
         <v>14780</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3574,13 @@
         <v>421421</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>609</v>
@@ -3589,13 +3589,13 @@
         <v>405736</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1210</v>
@@ -3604,13 +3604,13 @@
         <v>827158</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3625,13 @@
         <v>40318</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -3640,13 +3640,13 @@
         <v>33312</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>106</v>
@@ -3655,13 +3655,13 @@
         <v>73629</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3729,13 @@
         <v>159336</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>232</v>
@@ -3744,13 +3744,13 @@
         <v>154934</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>462</v>
@@ -3759,10 +3759,10 @@
         <v>314271</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>211</v>
@@ -3786,7 +3786,7 @@
         <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3795,13 +3795,13 @@
         <v>7168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -3810,13 +3810,13 @@
         <v>17570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3884,13 @@
         <v>636612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>918</v>
@@ -3899,13 +3899,13 @@
         <v>611937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>1829</v>
@@ -3914,13 +3914,13 @@
         <v>1248548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3935,13 @@
         <v>61540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -3950,13 +3950,13 @@
         <v>44439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -3965,13 +3965,13 @@
         <v>105979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A533F615-C02E-4735-8209-FB385D97F9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FAAF33-9527-4A25-BE94-637CDACA7795}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4064,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,13 +4320,13 @@
         <v>45991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4335,7 +4335,7 @@
         <v>44952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>238</v>
@@ -4374,10 +4374,10 @@
         <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4386,13 +4386,13 @@
         <v>5202</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -4401,13 +4401,13 @@
         <v>16073</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>429515</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>557</v>
@@ -4490,13 +4490,13 @@
         <v>392984</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>1116</v>
@@ -4505,13 +4505,13 @@
         <v>822500</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4526,13 @@
         <v>51392</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -4541,10 +4541,10 @@
         <v>50354</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>264</v>
@@ -4791,7 +4791,7 @@
         <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>804</v>
@@ -4800,10 +4800,10 @@
         <v>562756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>290</v>
@@ -4839,10 +4839,10 @@
         <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -4851,13 +4851,13 @@
         <v>81261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>

--- a/data/trans_orig/IP2005-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D115FE20-1FC0-4F59-A389-28016F231E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{142850BC-3091-47AD-AF15-2AEFA83DD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4C5CB7-A24B-4B32-96C5-C3D523E2F653}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{62A2E153-4C73-4606-ADB2-A31A7EBB7BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,883 +68,868 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>87,04%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2540A2B-629B-48BB-9547-9CA045616B9B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9D388-4E95-4FE9-9C7A-EC6F8455AE42}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1474,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>71453</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1489,81 +1474,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
+        <v>66529</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>137982</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>13449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14886</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>28335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,151 +1561,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>84902</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81415</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>166317</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>516</v>
       </c>
       <c r="D7" s="7">
-        <v>66529</v>
+        <v>342239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>608</v>
       </c>
       <c r="I7" s="7">
-        <v>71453</v>
+        <v>402783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>206</v>
+        <v>1124</v>
       </c>
       <c r="N7" s="7">
-        <v>137982</v>
+        <v>745022</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>14886</v>
+        <v>48990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>13449</v>
+        <v>47287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>28335</v>
+        <v>96277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,153 +1716,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="D9" s="7">
-        <v>81415</v>
+        <v>391229</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>127</v>
+        <v>679</v>
       </c>
       <c r="I9" s="7">
-        <v>84902</v>
+        <v>450070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>249</v>
+        <v>1269</v>
       </c>
       <c r="N9" s="7">
-        <v>166317</v>
+        <v>841299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>608</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7">
-        <v>402783</v>
+        <v>151349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>516</v>
+        <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>342239</v>
+        <v>133133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1124</v>
+        <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>745022</v>
+        <v>284483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>47287</v>
+        <v>8557</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>48990</v>
+        <v>12921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>96277</v>
+        <v>21477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,153 +1871,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>679</v>
+        <v>233</v>
       </c>
       <c r="D12" s="7">
-        <v>450070</v>
+        <v>159906</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>590</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>391229</v>
+        <v>146054</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1269</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>841299</v>
+        <v>305960</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>842</v>
       </c>
       <c r="D13" s="7">
-        <v>133133</v>
+        <v>565042</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>220</v>
+        <v>907</v>
       </c>
       <c r="I13" s="7">
-        <v>151349</v>
+        <v>602445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>1749</v>
       </c>
       <c r="N13" s="7">
-        <v>284483</v>
+        <v>1167486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D14" s="7">
-        <v>12921</v>
+        <v>70996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="I14" s="7">
-        <v>8557</v>
+        <v>75094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N14" s="7">
-        <v>21477</v>
+        <v>146090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,216 +2026,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>218</v>
+        <v>950</v>
       </c>
       <c r="D15" s="7">
-        <v>146054</v>
+        <v>636038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>233</v>
+        <v>1019</v>
       </c>
       <c r="I15" s="7">
-        <v>159906</v>
+        <v>677539</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>1969</v>
       </c>
       <c r="N15" s="7">
-        <v>305960</v>
+        <v>1313576</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>907</v>
-      </c>
-      <c r="D16" s="7">
-        <v>602445</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>842</v>
-      </c>
-      <c r="I16" s="7">
-        <v>565042</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1749</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1167487</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>113</v>
-      </c>
-      <c r="D17" s="7">
-        <v>75820</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>108</v>
-      </c>
-      <c r="I17" s="7">
-        <v>70996</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>221</v>
-      </c>
-      <c r="N17" s="7">
-        <v>146816</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1020</v>
-      </c>
-      <c r="D18" s="7">
-        <v>678265</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>950</v>
-      </c>
-      <c r="I18" s="7">
-        <v>636038</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1970</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1314303</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2257,8 +2092,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2641102E-CBB9-4C3F-AE1B-334283A964B2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48894CB4-6787-44D0-B99A-053BC0E89566}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2274,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2375,96 +2210,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>77918</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I4" s="7">
+        <v>69643</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>147561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>10841</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12982</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>23823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,151 +2312,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>171384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="D7" s="7">
-        <v>69643</v>
+        <v>372951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
+        <v>598</v>
+      </c>
+      <c r="I7" s="7">
+        <v>415455</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="K7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1141</v>
+      </c>
+      <c r="N7" s="7">
+        <v>788407</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="7">
-        <v>77918</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="7">
-        <v>211</v>
-      </c>
-      <c r="N7" s="7">
-        <v>147561</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>12982</v>
+        <v>44279</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="7">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44849</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10841</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="N8" s="7">
-        <v>23823</v>
+        <v>89128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,153 +2467,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>604</v>
       </c>
       <c r="D9" s="7">
-        <v>82625</v>
+        <v>417230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>662</v>
       </c>
       <c r="I9" s="7">
-        <v>88759</v>
+        <v>460304</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>1266</v>
       </c>
       <c r="N9" s="7">
-        <v>171384</v>
+        <v>877535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>598</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>415455</v>
+        <v>145620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>543</v>
+        <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>372951</v>
+        <v>150234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>1141</v>
+        <v>418</v>
       </c>
       <c r="N10" s="7">
-        <v>788407</v>
+        <v>295855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>44849</v>
+        <v>8705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>44279</v>
+        <v>5788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>89128</v>
+        <v>14493</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,153 +2622,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>662</v>
+        <v>218</v>
       </c>
       <c r="D12" s="7">
-        <v>460304</v>
+        <v>154325</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>604</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>417230</v>
+        <v>156022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1266</v>
+        <v>439</v>
       </c>
       <c r="N12" s="7">
-        <v>877535</v>
+        <v>310348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>861</v>
       </c>
       <c r="D13" s="7">
-        <v>150234</v>
+        <v>596489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>909</v>
       </c>
       <c r="I13" s="7">
-        <v>145620</v>
+        <v>635333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>418</v>
+        <v>1770</v>
       </c>
       <c r="N13" s="7">
-        <v>295855</v>
+        <v>1231822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7">
-        <v>5788</v>
+        <v>63825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>8705</v>
+        <v>63619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="N14" s="7">
-        <v>14493</v>
+        <v>127444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,216 +2777,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>951</v>
       </c>
       <c r="D15" s="7">
-        <v>156022</v>
+        <v>660314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>154325</v>
+        <v>698952</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>439</v>
+        <v>1950</v>
       </c>
       <c r="N15" s="7">
-        <v>310348</v>
+        <v>1359266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>910</v>
-      </c>
-      <c r="D16" s="7">
-        <v>635974</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>861</v>
-      </c>
-      <c r="I16" s="7">
-        <v>596489</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1771</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1232463</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>90</v>
-      </c>
-      <c r="D17" s="7">
-        <v>63619</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>90</v>
-      </c>
-      <c r="I17" s="7">
-        <v>63825</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>180</v>
-      </c>
-      <c r="N17" s="7">
-        <v>127444</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>699593</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>951</v>
-      </c>
-      <c r="I18" s="7">
-        <v>660314</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1951</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1359907</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3158,8 +2843,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070A4598-1353-4BA0-98A7-86E5C71F50E6}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BE2A35-0EA5-407F-8480-726363835EB6}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3175,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3276,88 +2961,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51267</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="I4" s="7">
+        <v>55853</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="N4" s="7">
+        <v>107120</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3959</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10821</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14780</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,147 +3063,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55226</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I6" s="7">
+        <v>66674</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="N6" s="7">
+        <v>121900</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="D7" s="7">
-        <v>55853</v>
+        <v>405736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>601</v>
       </c>
       <c r="I7" s="7">
-        <v>51267</v>
+        <v>421421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>157</v>
+        <v>1210</v>
       </c>
       <c r="N7" s="7">
-        <v>107120</v>
+        <v>827158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>10821</v>
+        <v>33312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>3959</v>
+        <v>40318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>14780</v>
+        <v>73629</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,153 +3218,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>96</v>
+        <v>660</v>
       </c>
       <c r="D9" s="7">
-        <v>66674</v>
+        <v>439048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>55226</v>
+        <v>461739</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>1316</v>
       </c>
       <c r="N9" s="7">
-        <v>121900</v>
+        <v>900787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>601</v>
+        <v>232</v>
       </c>
       <c r="D10" s="7">
-        <v>421421</v>
+        <v>154934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>609</v>
+        <v>230</v>
       </c>
       <c r="I10" s="7">
-        <v>405736</v>
+        <v>159336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>1210</v>
+        <v>462</v>
       </c>
       <c r="N10" s="7">
-        <v>827158</v>
+        <v>314271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>40318</v>
+        <v>7168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>33312</v>
+        <v>10402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>73629</v>
+        <v>17570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,153 +3373,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>461739</v>
+        <v>162102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>660</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>439048</v>
+        <v>169738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1316</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>900787</v>
+        <v>331841</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>230</v>
+        <v>918</v>
       </c>
       <c r="D13" s="7">
-        <v>159336</v>
+        <v>611937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>232</v>
+        <v>911</v>
       </c>
       <c r="I13" s="7">
-        <v>154934</v>
+        <v>636612</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>462</v>
+        <v>1829</v>
       </c>
       <c r="N13" s="7">
-        <v>314271</v>
+        <v>1248548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>10402</v>
+        <v>44439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>7168</v>
+        <v>61540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="N14" s="7">
-        <v>17570</v>
+        <v>105979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,216 +3528,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>985</v>
       </c>
       <c r="D15" s="7">
-        <v>169738</v>
+        <v>656376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>162102</v>
+        <v>698152</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>1981</v>
       </c>
       <c r="N15" s="7">
-        <v>331841</v>
+        <v>1354527</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>911</v>
-      </c>
-      <c r="D16" s="7">
-        <v>636612</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="7">
-        <v>918</v>
-      </c>
-      <c r="I16" s="7">
-        <v>611937</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1829</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1248548</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>85</v>
-      </c>
-      <c r="D17" s="7">
-        <v>61540</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7">
-        <v>44439</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" s="7">
-        <v>152</v>
-      </c>
-      <c r="N17" s="7">
-        <v>105979</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>996</v>
-      </c>
-      <c r="D18" s="7">
-        <v>698152</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>985</v>
-      </c>
-      <c r="I18" s="7">
-        <v>656376</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1981</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1354527</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4047,8 +3594,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FAAF33-9527-4A25-BE94-637CDACA7795}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0A4EBC-76BF-4363-8DCF-EF51589031D0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4064,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,96 +3712,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>48572</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>48222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>96794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5127</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>11581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>16708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,151 +3814,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>557</v>
       </c>
       <c r="D7" s="7">
-        <v>45991</v>
+        <v>404227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>559</v>
       </c>
       <c r="I7" s="7">
-        <v>44952</v>
+        <v>450449</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>127</v>
+        <v>1116</v>
       </c>
       <c r="N7" s="7">
-        <v>90943</v>
+        <v>854677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
-        <v>10871</v>
+        <v>49635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>5202</v>
+        <v>54427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N8" s="7">
-        <v>16073</v>
+        <v>104062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,153 +3969,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="D9" s="7">
-        <v>56862</v>
+        <v>453862</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>504876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1259</v>
       </c>
       <c r="N9" s="7">
-        <v>107016</v>
+        <v>958739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>559</v>
+        <v>186</v>
       </c>
       <c r="D10" s="7">
-        <v>429515</v>
+        <v>122335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>557</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>392984</v>
+        <v>158419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>1116</v>
+        <v>389</v>
       </c>
       <c r="N10" s="7">
-        <v>822500</v>
+        <v>280755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25203</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>23660</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M11" s="7">
         <v>71</v>
       </c>
-      <c r="D11" s="7">
-        <v>51392</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="7">
-        <v>72</v>
-      </c>
-      <c r="I11" s="7">
-        <v>50354</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M11" s="7">
-        <v>143</v>
-      </c>
       <c r="N11" s="7">
-        <v>101745</v>
+        <v>48862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,153 +4124,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>480907</v>
+        <v>147538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>629</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>443338</v>
+        <v>182079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1259</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>924245</v>
+        <v>329617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>203</v>
+        <v>803</v>
       </c>
       <c r="D13" s="7">
-        <v>151037</v>
+        <v>575134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>186</v>
+        <v>829</v>
       </c>
       <c r="I13" s="7">
-        <v>123649</v>
+        <v>657092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>389</v>
+        <v>1632</v>
       </c>
       <c r="N13" s="7">
-        <v>274685</v>
+        <v>1232226</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>22325</v>
+        <v>79965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I14" s="7">
-        <v>25706</v>
+        <v>89667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="N14" s="7">
-        <v>48031</v>
+        <v>169632</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,216 +4279,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>921</v>
       </c>
       <c r="D15" s="7">
-        <v>173362</v>
+        <v>655099</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>945</v>
       </c>
       <c r="I15" s="7">
-        <v>149355</v>
+        <v>746759</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1866</v>
       </c>
       <c r="N15" s="7">
-        <v>322716</v>
+        <v>1401858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>829</v>
-      </c>
-      <c r="D16" s="7">
-        <v>626543</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" s="7">
-        <v>804</v>
-      </c>
-      <c r="I16" s="7">
-        <v>562756</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1633</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1189299</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>116</v>
-      </c>
-      <c r="D17" s="7">
-        <v>84588</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>81261</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="7">
-        <v>234</v>
-      </c>
-      <c r="N17" s="7">
-        <v>165849</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>945</v>
-      </c>
-      <c r="D18" s="7">
-        <v>711131</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>922</v>
-      </c>
-      <c r="I18" s="7">
-        <v>644017</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1355148</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
